--- a/GhiDanh/PhieuGhiDanh-KhachSan-ChuyenCho.xlsx
+++ b/GhiDanh/PhieuGhiDanh-KhachSan-ChuyenCho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC67F6C-C023-4914-B0AD-66DFFE88D407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92F7F0-8F78-43D0-91FD-A3DBB5460B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,13 +45,15 @@
     <t>PHIẾU GHI DANH KHÁCH SẠN &amp; CHUYÊN CHỞ</t>
   </si>
   <si>
-    <t>Xe chở khứ hồi từ Khách sạn đến địa điểm Đại Hội 18-09-2024</t>
-  </si>
-  <si>
     <t>Số đêm ở những Khách sạn khác</t>
   </si>
   <si>
-    <t>Số đêm ở hotel-résidence ECLA</t>
+    <t>Số đêm ở 
+hotel-résidence ECLA</t>
+  </si>
+  <si>
+    <t>Xe chở khứ hồi từ Khách sạn đến địa điểm Đại Hội 18-09-2024
+ (trừ  ở Eclat)</t>
   </si>
 </sst>
 </file>
@@ -275,9 +277,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,7 +704,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,212 +713,212 @@
     <col min="2" max="2" width="34" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="16" t="s">
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>3</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>5</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <v>7</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>2</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>3</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>8</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>9</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>10</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>11</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>12</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
